--- a/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:51:53+00:00</t>
+    <t>2022-11-18T19:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:52:09+00:00</t>
+    <t>2022-11-18T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:57:45+00:00</t>
+    <t>2022-11-19T06:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="368">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T06:10:15+00:00</t>
+    <t>2022-11-19T22:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -651,6 +651,9 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/pharmaceutical-doseform-vs</t>
+  </si>
+  <si>
     <t>Coding.code</t>
   </si>
   <si>
@@ -766,6 +769,9 @@
     <t>AdministrableProductDefinition.unitOfPresentation.coding.code</t>
   </si>
   <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/unit-of-presentation-vs</t>
+  </si>
+  <si>
     <t>AdministrableProductDefinition.unitOfPresentation.coding.display</t>
   </si>
   <si>
@@ -978,6 +984,9 @@
   </si>
   <si>
     <t>AdministrableProductDefinition.routeOfAdministration.code.coding.code</t>
+  </si>
+  <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/routes-and-methods-of-administration-vs</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.routeOfAdministration.code.coding.display</t>
@@ -1469,7 +1478,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="110.58203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.21484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -3813,13 +3822,11 @@
         <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>76</v>
@@ -3837,7 +3844,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3858,12 +3865,12 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3889,14 +3896,14 @@
         <v>195</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -3945,7 +3952,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3966,12 +3973,12 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3994,19 +4001,19 @@
         <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4055,7 +4062,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -4076,12 +4083,12 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4107,16 +4114,16 @@
         <v>195</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4165,7 +4172,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -4186,12 +4193,12 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4217,10 +4224,10 @@
         <v>159</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4250,10 +4257,10 @@
         <v>162</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4271,7 +4278,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4286,7 +4293,7 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
@@ -4297,7 +4304,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4403,7 +4410,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4511,7 +4518,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4621,7 +4628,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4727,7 +4734,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4835,7 +4842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4880,7 +4887,7 @@
         <v>76</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>76</v>
@@ -4945,7 +4952,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5053,7 +5060,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5111,13 +5118,11 @@
         <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>76</v>
@@ -5135,7 +5140,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5156,12 +5161,12 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5187,14 +5192,14 @@
         <v>195</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5243,7 +5248,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -5264,12 +5269,12 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5292,19 +5297,19 @@
         <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5353,7 +5358,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5374,12 +5379,12 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5405,16 +5410,16 @@
         <v>195</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -5463,7 +5468,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -5484,12 +5489,12 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5512,13 +5517,13 @@
         <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5569,7 +5574,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5584,7 +5589,7 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
@@ -5595,7 +5600,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5621,10 +5626,10 @@
         <v>159</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5654,10 +5659,10 @@
         <v>162</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>76</v>
@@ -5675,7 +5680,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5690,7 +5695,7 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -5701,7 +5706,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5724,13 +5729,13 @@
         <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5781,7 +5786,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -5796,7 +5801,7 @@
         <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -5807,7 +5812,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5830,13 +5835,13 @@
         <v>84</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5887,7 +5892,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -5899,10 +5904,10 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -5913,7 +5918,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6019,7 +6024,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6127,11 +6132,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6153,10 +6158,10 @@
         <v>130</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>133</v>
@@ -6211,7 +6216,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
@@ -6237,7 +6242,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6263,10 +6268,10 @@
         <v>159</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6296,10 +6301,10 @@
         <v>162</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>76</v>
@@ -6317,7 +6322,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>83</v>
@@ -6332,7 +6337,7 @@
         <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
@@ -6343,7 +6348,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6366,13 +6371,13 @@
         <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6423,7 +6428,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -6438,7 +6443,7 @@
         <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
@@ -6449,7 +6454,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6475,10 +6480,10 @@
         <v>159</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6529,7 +6534,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -6544,7 +6549,7 @@
         <v>95</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -6555,7 +6560,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6578,13 +6583,13 @@
         <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6635,7 +6640,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>83</v>
@@ -6647,10 +6652,10 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
@@ -6661,7 +6666,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6767,7 +6772,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6875,11 +6880,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6901,10 +6906,10 @@
         <v>130</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>133</v>
@@ -6959,7 +6964,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -6985,7 +6990,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7011,10 +7016,10 @@
         <v>159</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7044,10 +7049,10 @@
         <v>162</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7065,7 +7070,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>83</v>
@@ -7080,7 +7085,7 @@
         <v>95</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
@@ -7091,7 +7096,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7197,7 +7202,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7305,7 +7310,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7415,7 +7420,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7521,7 +7526,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7629,7 +7634,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7674,7 +7679,7 @@
         <v>76</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>76</v>
@@ -7739,7 +7744,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7847,7 +7852,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7905,13 +7910,11 @@
         <v>76</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>76</v>
@@ -7929,7 +7932,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -7950,12 +7953,12 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7981,14 +7984,14 @@
         <v>195</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8037,7 +8040,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8058,12 +8061,12 @@
         <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8086,19 +8089,19 @@
         <v>84</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8147,7 +8150,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8168,12 +8171,12 @@
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8199,16 +8202,16 @@
         <v>195</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -8257,7 +8260,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8278,12 +8281,12 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8306,13 +8309,13 @@
         <v>84</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8363,7 +8366,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -8378,7 +8381,7 @@
         <v>95</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>76</v>
@@ -8389,7 +8392,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8412,13 +8415,13 @@
         <v>84</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8469,7 +8472,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
@@ -8484,7 +8487,7 @@
         <v>95</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>76</v>
@@ -8495,7 +8498,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8518,13 +8521,13 @@
         <v>84</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8575,7 +8578,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -8590,7 +8593,7 @@
         <v>95</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>76</v>
@@ -8601,7 +8604,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8624,13 +8627,13 @@
         <v>84</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8681,7 +8684,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -8696,7 +8699,7 @@
         <v>95</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>76</v>
@@ -8707,7 +8710,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8730,13 +8733,13 @@
         <v>84</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8787,7 +8790,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -8802,7 +8805,7 @@
         <v>95</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
@@ -8813,7 +8816,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8836,13 +8839,13 @@
         <v>84</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8893,7 +8896,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -8905,7 +8908,7 @@
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>145</v>
@@ -8919,7 +8922,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9025,7 +9028,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9133,11 +9136,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9159,10 +9162,10 @@
         <v>130</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>133</v>
@@ -9217,7 +9220,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
@@ -9243,7 +9246,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9269,10 +9272,10 @@
         <v>159</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9302,28 +9305,28 @@
         <v>162</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE73" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>83</v>
@@ -9349,7 +9352,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9372,13 +9375,13 @@
         <v>84</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9429,7 +9432,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
@@ -9441,7 +9444,7 @@
         <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>145</v>
@@ -9455,7 +9458,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9561,7 +9564,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9669,11 +9672,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -9695,10 +9698,10 @@
         <v>130</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>133</v>
@@ -9753,7 +9756,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -9779,7 +9782,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9805,10 +9808,10 @@
         <v>159</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9838,28 +9841,28 @@
         <v>162</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE78" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>83</v>
@@ -9885,7 +9888,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9908,13 +9911,13 @@
         <v>84</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9965,7 +9968,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>83</v>
@@ -9991,7 +9994,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10017,10 +10020,10 @@
         <v>195</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10071,7 +10074,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>

--- a/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T09:28:17+00:00</t>
+    <t>2022-11-20T17:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -608,7 +608,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/200000000004</t>
+    <t>https://spor.ema.europa.eu/v1/lists/200000000004</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -760,7 +760,7 @@
     <t>AdministrableProductDefinition.unitOfPresentation.coding.system</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/200000000014</t>
+    <t>https://spor.ema.europa.eu/v1/lists/200000000014</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.unitOfPresentation.coding.version</t>
@@ -977,7 +977,7 @@
     <t>AdministrableProductDefinition.routeOfAdministration.code.coding.system</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/100000073345</t>
+    <t>https://spor.ema.europa.eu/v1/lists/100000073345</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.routeOfAdministration.code.coding.version</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T10:47:26+00:00</t>
+    <t>2022-11-22T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:07:41+00:00</t>
+    <t>2022-11-22T20:42:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
